--- a/Documentacion de Testing.xlsx
+++ b/Documentacion de Testing.xlsx
@@ -1,30 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabrizio\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabrizio\Desktop\CoderFinal\CoderHouseV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+  <si>
+    <t>Documentacion de Testing</t>
+  </si>
   <si>
     <t>Pantalla</t>
   </si>
@@ -35,6 +33,12 @@
     <t>datos</t>
   </si>
   <si>
+    <t>Accion</t>
+  </si>
+  <si>
+    <t>Caso de Test</t>
+  </si>
+  <si>
     <t xml:space="preserve">blog </t>
   </si>
   <si>
@@ -44,18 +48,12 @@
     <t>Ingresamos titulo, contenido, breve</t>
   </si>
   <si>
-    <t>Caso de Test</t>
+    <t>Crear</t>
   </si>
   <si>
     <t>Aprobado</t>
   </si>
   <si>
-    <t>Accion</t>
-  </si>
-  <si>
-    <t>Crear</t>
-  </si>
-  <si>
     <t>Modificamos Contenido</t>
   </si>
   <si>
@@ -83,20 +81,62 @@
     <t>ERROR</t>
   </si>
   <si>
-    <t>Documentacion de Testing</t>
+    <t>Test Fecha</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>Creamos imagen user e imagen de fondo</t>
+  </si>
+  <si>
+    <t>creamos</t>
+  </si>
+  <si>
+    <t>Editamos imagen user e imagen de fondo</t>
+  </si>
+  <si>
+    <t>Editamos</t>
+  </si>
+  <si>
+    <t>Pantalla de Perfil</t>
+  </si>
+  <si>
+    <t>Visualizacion de Informacion de Usuario</t>
+  </si>
+  <si>
+    <t>Visualizacion</t>
+  </si>
+  <si>
+    <t>Usuario Normal</t>
+  </si>
+  <si>
+    <t>ema</t>
+  </si>
+  <si>
+    <t>Se observa el reporte de acerca y blog sin la opcion de poder editarlo, eliminar y crear</t>
+  </si>
+  <si>
+    <t>visualizacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -131,9 +171,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -143,10 +211,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -154,7 +238,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -167,7 +251,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -201,20 +285,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -244,12 +328,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -288,289 +372,440 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="K10" sqref="K9:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="F8" s="3">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3">
+        <v>44844</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
